--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technikum\technikum-backend-frontend-webshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CDA2C9B-034E-4C36-93DE-F86052FFD1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6001F1-E6B7-4F05-B352-4C731D872686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BA40EDEA-C7D3-4442-BBB9-FD8DE4816BCC}"/>
+    <workbookView xWindow="-3285" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{BA40EDEA-C7D3-4442-BBB9-FD8DE4816BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +153,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,9 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -498,22 +506,22 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,11 +538,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
@@ -547,7 +555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -564,7 +572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -581,7 +589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -595,7 +603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -609,7 +617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -620,15 +628,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -636,22 +644,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>22</v>
       </c>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technikum\technikum-backend-frontend-webshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6001F1-E6B7-4F05-B352-4C731D872686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EFE4FD-74A5-4CC5-9095-F457D1BA0288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3285" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{BA40EDEA-C7D3-4442-BBB9-FD8DE4816BCC}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10540" xr2:uid="{BA40EDEA-C7D3-4442-BBB9-FD8DE4816BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Tables for CrazyCookie</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>m:1</t>
   </si>
 </sst>
 </file>
@@ -506,25 +509,28 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -538,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -555,7 +561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -572,7 +578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -589,7 +595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -603,7 +609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -617,7 +623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -628,7 +634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -636,7 +642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -644,22 +650,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>22</v>
       </c>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technikum\technikum-backend-frontend-webshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EFE4FD-74A5-4CC5-9095-F457D1BA0288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74251BA-203C-4C9B-8D46-DE6FD21F57BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10540" xr2:uid="{BA40EDEA-C7D3-4442-BBB9-FD8DE4816BCC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Tables for CrazyCookie</t>
   </si>
@@ -113,9 +113,6 @@
     <t>user_id (fk)</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -138,6 +135,39 @@
   </si>
   <si>
     <t>m:1</t>
+  </si>
+  <si>
+    <t>orderstatus</t>
+  </si>
+  <si>
+    <t>orderstatus_id (fk)</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>packaged</t>
+  </si>
+  <si>
+    <t>shipped</t>
+  </si>
+  <si>
+    <t>arrived</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>user_id(fk)</t>
+  </si>
+  <si>
+    <t>cart_products</t>
+  </si>
+  <si>
+    <t>cart_id (fk)</t>
   </si>
 </sst>
 </file>
@@ -506,30 +536,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02383AB0-1036-4B97-89DC-9D4B640D4F26}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" customWidth="1"/>
+    <col min="4" max="4" width="4.26953125" customWidth="1"/>
+    <col min="6" max="6" width="3.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.08984375" customWidth="1"/>
     <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -543,8 +580,14 @@
       <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -558,10 +601,16 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -575,10 +624,16 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -589,13 +644,16 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -606,10 +664,10 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -620,10 +678,10 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -631,10 +689,10 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -642,7 +700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -650,24 +708,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
